--- a/medicine/Enfance/Édouard_Jauffret/Édouard_Jauffret.xlsx
+++ b/medicine/Enfance/Édouard_Jauffret/Édouard_Jauffret.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89douard_Jauffret</t>
+          <t>Édouard_Jauffret</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Édouard Jauffret, né le 4 octobre 1900 à La Seyne-sur-Mer dans le Var et mort à Draguignan le 19 janvier 1945, est un écrivain français, auteur de livres scolaires.
-Auteur très connu dans le monde de la littérature scolaire, son ouvrage (autobiographique) Au pays bleu a ravi de très nombreuses générations d'écoliers qui ont appris la lecture dans ces pages[source secondaire nécessaire] illustrées par Raylambert. Des rééditions en fac-similé ont paru en 2008[1].
+Auteur très connu dans le monde de la littérature scolaire, son ouvrage (autobiographique) Au pays bleu a ravi de très nombreuses générations d'écoliers qui ont appris la lecture dans ces pages[source secondaire nécessaire] illustrées par Raylambert. Des rééditions en fac-similé ont paru en 2008.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89douard_Jauffret</t>
+          <t>Édouard_Jauffret</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est reçu au concours de l’École normale à Draguignan en 1916 et est nommé Inspecteur à 30 ans. Il a été nommé à Autun en Saône-et-Loire le 8 juin 1934, puis à Corte, en Corse.
 Il devient inspecteur de l'enseignement primaire dès sa première candidature (deuxième copie de philosophie, au niveau national, où treize candidats seulement ont été reçus inspecteurs). Brillant, il se fait remarquer à la Sorbonne avec des notes qui oscillent entre 14 et 16 sur 20.
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89douard_Jauffret</t>
+          <t>Édouard_Jauffret</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Tous ces ouvrages sont illustrés par Raylambert.
 1941 : Au Pays bleu, roman d'une vie d'enfant - roman scolaire (cours élémentaire), éditions Eugène Belin. (Ce livre a connu de nombreuses rééditions)
